--- a/Proforma Template.xlsx
+++ b/Proforma Template.xlsx
@@ -2169,7 +2169,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="36.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="20.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="30.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="18.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="47" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="48" width="8.8"/>
